--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Constant Prices_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Constant Prices_historical.xlsx
@@ -1,37 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Mining and quarrying</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Electricity, steam, water and waste management</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Financial and insurance activities</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +75,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +94,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1853 +391,1812 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:77">
+      <c r="B1" s="1">
         <v>1946</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1947</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1948</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1949</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1950</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1951</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1952</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1953</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1954</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1955</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1956</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1957</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1958</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1959</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1960</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1961</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1962</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1963</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>1964</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>1965</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>1966</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>1967</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>1968</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>1969</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>1970</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>1971</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>1972</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>1973</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>1974</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>1975</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AF1" s="1">
         <v>1976</v>
       </c>
-      <c r="AG1" s="1" t="n">
+      <c r="AG1" s="1">
         <v>1977</v>
       </c>
-      <c r="AH1" s="1" t="n">
+      <c r="AH1" s="1">
         <v>1978</v>
       </c>
-      <c r="AI1" s="1" t="n">
+      <c r="AI1" s="1">
         <v>1979</v>
       </c>
-      <c r="AJ1" s="1" t="n">
+      <c r="AJ1" s="1">
         <v>1980</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AK1" s="1">
         <v>1981</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AL1" s="1">
         <v>1982</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AM1" s="1">
         <v>1983</v>
       </c>
-      <c r="AN1" s="1" t="n">
+      <c r="AN1" s="1">
         <v>1984</v>
       </c>
-      <c r="AO1" s="1" t="n">
+      <c r="AO1" s="1">
         <v>1985</v>
       </c>
-      <c r="AP1" s="1" t="n">
+      <c r="AP1" s="1">
         <v>1986</v>
       </c>
-      <c r="AQ1" s="1" t="n">
+      <c r="AQ1" s="1">
         <v>1987</v>
       </c>
-      <c r="AR1" s="1" t="n">
+      <c r="AR1" s="1">
         <v>1988</v>
       </c>
-      <c r="AS1" s="1" t="n">
+      <c r="AS1" s="1">
         <v>1989</v>
       </c>
-      <c r="AT1" s="1" t="n">
+      <c r="AT1" s="1">
         <v>1990</v>
       </c>
-      <c r="AU1" s="1" t="n">
+      <c r="AU1" s="1">
         <v>1991</v>
       </c>
-      <c r="AV1" s="1" t="n">
+      <c r="AV1" s="1">
         <v>1992</v>
       </c>
-      <c r="AW1" s="1" t="n">
+      <c r="AW1" s="1">
         <v>1993</v>
       </c>
-      <c r="AX1" s="1" t="n">
+      <c r="AX1" s="1">
         <v>1994</v>
       </c>
-      <c r="AY1" s="1" t="n">
+      <c r="AY1" s="1">
         <v>1995</v>
       </c>
-      <c r="AZ1" s="1" t="n">
+      <c r="AZ1" s="1">
         <v>1996</v>
       </c>
-      <c r="BA1" s="1" t="n">
+      <c r="BA1" s="1">
         <v>1997</v>
       </c>
-      <c r="BB1" s="1" t="n">
+      <c r="BB1" s="1">
         <v>1998</v>
       </c>
-      <c r="BC1" s="1" t="n">
+      <c r="BC1" s="1">
         <v>1999</v>
       </c>
-      <c r="BD1" s="1" t="n">
+      <c r="BD1" s="1">
         <v>2000</v>
       </c>
-      <c r="BE1" s="1" t="n">
+      <c r="BE1" s="1">
         <v>2001</v>
       </c>
-      <c r="BF1" s="1" t="n">
+      <c r="BF1" s="1">
         <v>2002</v>
       </c>
-      <c r="BG1" s="1" t="n">
+      <c r="BG1" s="1">
         <v>2003</v>
       </c>
-      <c r="BH1" s="1" t="n">
+      <c r="BH1" s="1">
         <v>2004</v>
       </c>
-      <c r="BI1" s="1" t="n">
+      <c r="BI1" s="1">
         <v>2005</v>
       </c>
-      <c r="BJ1" s="1" t="n">
+      <c r="BJ1" s="1">
         <v>2006</v>
       </c>
-      <c r="BK1" s="1" t="n">
+      <c r="BK1" s="1">
         <v>2007</v>
       </c>
-      <c r="BL1" s="1" t="n">
+      <c r="BL1" s="1">
         <v>2008</v>
       </c>
-      <c r="BM1" s="1" t="n">
+      <c r="BM1" s="1">
         <v>2009</v>
       </c>
-      <c r="BN1" s="1" t="n">
+      <c r="BN1" s="1">
         <v>2010</v>
       </c>
-      <c r="BO1" s="1" t="n">
+      <c r="BO1" s="1">
         <v>2011</v>
       </c>
-      <c r="BP1" s="1" t="n">
+      <c r="BP1" s="1">
         <v>2012</v>
       </c>
-      <c r="BQ1" s="1" t="n">
+      <c r="BQ1" s="1">
         <v>2013</v>
       </c>
-      <c r="BR1" s="1" t="n">
+      <c r="BR1" s="1">
         <v>2014</v>
       </c>
-      <c r="BS1" s="1" t="n">
+      <c r="BS1" s="1">
         <v>2015</v>
       </c>
-      <c r="BT1" s="1" t="n">
+      <c r="BT1" s="1">
         <v>2016</v>
       </c>
-      <c r="BU1" s="1" t="n">
+      <c r="BU1" s="1">
         <v>2017</v>
       </c>
-      <c r="BV1" s="1" t="n">
+      <c r="BV1" s="1">
         <v>2018</v>
       </c>
-      <c r="BW1" s="1" t="n">
+      <c r="BW1" s="1">
         <v>2019</v>
       </c>
-      <c r="BX1" s="1" t="n">
+      <c r="BX1" s="1">
         <v>2020</v>
       </c>
-      <c r="BY1" s="1" t="n">
+      <c r="BY1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Mining and quarrying</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:77">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>957.692491990189</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>977.237236724682</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2431.36624497101</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3048.98017858102</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>4006.67267057121</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>5163.72155885324</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>6516.2178944802</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>6914.93068706386</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>6316.86149818836</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>6754.66378024102</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>8052.4348306114</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>9186.030025212031</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>9107.851046274051</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>10104.6330277332</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>9526.10858359222</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>9506.56383885773</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>9545.653328326711</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>10042.0898445828</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>10163.2672619367</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>10659.7037781929</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>11977.0195732977</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>13231.7921852522</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>15190.1756076485</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>17054.7442553192</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>19368.8420318831</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>21088.7795685187</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>21139.5959048284</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>22155.9226310221</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>21671.2129616067</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>22421.7311594112</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>23008.0735014459</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>27612.8153608927</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>28605.6883934049</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>32241.0109140207</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>35680.8859872917</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>36548.6726535032</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>35825.5170983269</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>36134.3240651319</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>35020.2736152658</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>46489.1298254666</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>48130.8883831641</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>43905.3145715666</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>45750.3384745029</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>44519.0195562296</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>43354.1527700539</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>42099.3801580993</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>44933.3681446008</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>45230.4482645653</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>42072.017515471</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>39226.3026821288</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>39738.3749941725</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>40410.7142130392</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>41528.6736118522</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>41722.1168806183</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>56451.853377</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>54420.802195</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>81125.018138</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>91679.01016400001</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>86932.72563</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>99343.29672300001</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>95543.001261</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>109046.021426</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>107284.083082</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>122121.038635</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>133399.111183</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>133388.051836</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>128010.571564</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>130910.481915</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>149510.569676</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>148588.707145</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>156806.535862</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>160065.486217</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>163322.488586</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>168857.015598</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>137493.025133</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>144431.036201</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:77">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>26164.214381202</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>52832.7412929273</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>83547.7758900428</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>103576.187816543</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>123598.596022443</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>144893.792995853</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>153443.091132345</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>172468.881718401</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>193908.167986246</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>218943.682894372</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>249112.378916754</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>263857.516713961</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>283333.586345127</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>308495.179385885</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>316546.168712454</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>329778.368918092</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>347483.340971823</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>373545.4921028</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>386207.338851299</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>402315.32122504</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>431199.221038708</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>468758.497121498</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>498260.780157117</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>516289.953123328</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>557763.655038276</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>595617.113430538</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>629946.387829738</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>722775.915769652</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>751497.71512708</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>772306.610731771</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>817052.340374521</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>869014.542180234</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>926506.170659902</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>969877.048284915</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>1010378.14746242</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>1030052.33987344</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>1046538.55664507</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>1043182.47682885</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>937751.1393464539</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>863641.212241919</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>879262.893246942</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>928199.219869516</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>1016525.95735833</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>1075578.55319438</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>1104234.31162519</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>1099347.28305559</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>1080351.51107255</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>1088408.50411972</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>1142952.30578406</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>1220382.29038121</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>1288476.48944307</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>1342864.19437178</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>1327728.81473547</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>1350270.9322274</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>1572788.923968</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>1615140.919635</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>1675907.434909</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>1744160.752699</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>1816029.50843</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>1933017.106558</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>1987874.270046</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>2045234.773836</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>2151220.257407</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>2058618.808786</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>2214485.801508</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>2297191.779168</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>2427619.431025</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>2538760.398175</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>2732859.621118</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>2874284.387831</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>3070939.377446</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>3317641.432608</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>3488331.181025</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>3620455.937586</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>3266301.602731</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>3554736.921931</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Electricity, steam, water and waste management</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:77">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>9432.011795287921</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>9944.293586086311</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>10305.904261944</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>10750.3840510191</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>11044.1927251534</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>11481.1389584815</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>11918.0851918095</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>12211.8938659439</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>12648.8400992719</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>13085.7863325999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>14622.6317049951</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>15353.3866124575</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>16159.4770773903</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>16453.2857515246</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>16965.567542323</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>16965.567542323</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>17033.3695440463</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>17108.7051015167</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>17327.1782181807</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>19157.8322647102</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>19594.7784980382</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>20333.0669612477</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>23482.0932635084</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>25990.767327271</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>29117.1929622907</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>32522.3601599505</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>34624.2222133732</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>37125.3627213888</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>60200.6439745574</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>62053.8986883281</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>69512.1188778927</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>72615.9438456713</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>76119.0472680425</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>85837.3341817177</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>93333.2221500177</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>107014.159386633</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>130835.262658758</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>118902.110355455</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>126993.149227771</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>118781.573463502</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>134481.503640323</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>119113.049916372</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>134074.691629983</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>141299.37159139</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>140681.620020133</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>147296.08196603</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>148267.910657397</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>152592.171656196</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>173731.329082376</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>196324.462767735</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>210999.829362959</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>221162.596065708</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>228379.742471369</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>231648.415654091</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>227751.85595</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>236233.398069</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>240080.703711</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>260147.633819</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>280209.77736</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>284094.657353</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>293444.126259</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>310704.894215</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>331050.232317</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>327945.492261</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>360981.600827</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>365609.843692</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>387840.160893</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>409649.528624</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>428436.570842</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>458765.980367</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>500471.779842</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>523160.631105</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>557030.201917</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>591311.995951</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>589213.035861</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>615505.4213019999</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:77">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>64198.5920388097</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>110797.193530267</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>139052.011952562</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>102885.100579503</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>89980.30032608259</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>101834.493642445</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>90138.35623696751</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>99975.01233791759</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>80524.8378925607</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>78730.4384336917</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>93792.237000364</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>106538.981342899</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>91700.32053277059</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>98041.1517812091</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>85136.35152778871</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>97139.30334851331</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>95577.3390527102</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>119062.587928892</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>133445.675819411</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>145894.903153223</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>138959.037887335</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>147466.164855548</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>133975.627991202</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>144788.511777029</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>129587.252112517</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>140846.411411431</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>167009.313366132</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>181401.698663174</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>204663.809782812</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>295108.980435027</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>393298.890720597</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>431102.145641641</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>443179.476714547</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>503947.325746503</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>532276.52342098</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>589650.819072172</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>596056.73216627</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>652715.12751522</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>520905.795243794</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>269968.793197817</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>265413.064001724</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>295118.27784155</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>308999.305779847</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>370761.977309725</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>389170.842224547</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>328058.989151253</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>337133.257917348</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>356499.755704</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>388389.860076645</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>413660.211005173</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>458724.740420396</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>532945.936690609</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>481521.981213902</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>407973.658639319</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>376339.275264</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>357417.658473</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>349269.639616</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>366883.203818</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>388234.323164</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>384829.689002</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>425237.235382</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>475688.990369</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>512019.079662</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>548966.951853</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>649156.774066</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>615619.526011</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>730639.597316</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>845198.337914</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>908065.069533</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>1011750.883648</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>1133124.059135</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>1201714.033207</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>1373841.417788</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>1507243.747752</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>1122308.049266</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>1234810.889054</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:77">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>213482.867237221</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>274926.408374352</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>306621.827503095</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>344615.562064938</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>372062.466071143</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>405706.813676541</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>451478.778032084</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>482742.593190559</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>522694.065594189</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>567362.516014381</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>597374.596008984</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>630817.745141321</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>652139.889024592</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>691041.745869412</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>718007.5750945</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>755835.625839103</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>797830.735263151</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>839020.542503981</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>877334.106155067</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>912577.368698356</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>952166.519322151</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>998813.995654445</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>1043332.60634036</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>1096801.82401181</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>1143559.53772777</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>1198182.55089265</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>1247406.38493479</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>1322946.46082604</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>1385726.81181886</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>1455780.13338318</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>1543550.29914598</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>1613004.42745808</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>1703682.47990263</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>1794625.9748335</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>1902562.30185021</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>1941549.96397406</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>2067208.74923609</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>2170523.96948946</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>2038610.02371446</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>1999830.09970121</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>2084687.44189373</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>2191696.63577004</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>2342877.75362143</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>2501724.88930174</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>2616762.94878578</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>2624349.97718467</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>2651295.21062253</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>2717758.1696512</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>2830637.07567294</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>2965482.27905292</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>3150666.69332245</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>3317791.981217</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>3412728.03937759</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>3568568.59657837</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>3688046.244643</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>3830053.470401</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>3974520.6392</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>4185435.787886</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>4532562.356355</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>4771970.633589</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>5078027.475269</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>5468817.760841</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>5686952.129157</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>5881773.901588</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>6326036.939285</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>6652995.990549</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>7144044.921843</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>7684933.195282</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>8201168.559007</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>8809173.735735999</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>9529249.159802999</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>10230262.208914</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>10920048.472266</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>11711026.767278</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>10642137.00229</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>11213211.486369</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
+    <row r="7" spans="1:77">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7">
         <v>283648.402839106</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>291849.246163041</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>309382.83905776</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>328260.114206802</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>344245.551460672</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>356740.335901682</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>379962.67051443</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>401958.164808014</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>415227.02706945</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>441341.199577369</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>471763.91844426</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>506984.459273593</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>546221.441624</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>579353.432862377</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>580638.694149122</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>630493.687357056</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>655329.901199179</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>610769.308178113</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>604912.6061782941</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>634721.904885601</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>657513.384862453</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>695063.46177401</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>750190.94730597</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>784505.963137826</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>788697.667561637</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>801681.727606124</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>821391.501543169</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>853844.349033438</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>901362.503538202</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>951144.470536662</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>988234.482328533</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>1012442.67076918</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>1101079.42180755</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>1260149.625534</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>1318538.621664</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>1361602.148853</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>1425297.745875</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>1525888.24471</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>1603593.75607</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>1697235.157787</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>1837413.908058</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>1861552.755658</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>1877191.394168</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>2030313.758574</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>2093913.327682</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>2245452.864049</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>2381082.16762</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>2506535.193324</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>2670293.978079</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>2861060.496261</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>3057552.347338</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>3237304.499115</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>3489299.398624</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>3275536.813015</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>3414326.328215</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Financial and insurance activities</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:77">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>143999.06295321</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>181875.512504101</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>198842.790809704</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>220454.647318155</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>236967.751002446</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>260644.816637993</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>283165.022389066</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>298624.098178616</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>324066.446304543</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>353947.708653855</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>372174.678833661</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>396400.181747772</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>407300.37265925</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>433651.070027801</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>448793.080515679</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>471141.899617201</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>498846.551517209</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>521589.559912699</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>541830.323224737</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>560571.453353198</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>585516.780195427</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>66866.5013225359</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>73156.39136107751</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>82582.6570864127</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>85839.0034278922</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>90295.0563162324</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>97947.470218709</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>107905.034557654</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>112361.087445994</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>130348.116316429</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>146449.892041797</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>157744.272247244</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>166116.510077836</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>184651.976226836</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>205689.687459289</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>177985.035559281</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>187788.35191363</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>213864.830642897</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>172329.27612408</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>146732.680013557</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>158678.329487299</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>183940.721631197</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>204335.732927831</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>233608.572671235</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>256805.755688037</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>249487.545752187</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>250370.186997376</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>256300.165071861</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>270328.162337655</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>290089.043030949</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>330030.701708936</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>372843.086766911</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>389433.314443502</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>404113.279442702</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>341019.568119</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>357883.579068</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>379993.595611</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>407907.103621</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>444300.139126</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>489868.289405</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>555549.363764</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>618666.652598</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>637228.441953</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>680187.415916</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>757900.749597</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>806878.3604</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>883974.155032</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>1006838.764597</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>1092038.20034</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>1171993.684796</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>1275687.044813</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>1382520.584516</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BV8">
         <v>1498146.707611</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
         <v>1676448.101505</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BX8">
         <v>1769952.497323</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8">
         <v>1853154.422339</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Constant Prices_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Constant Prices_historical.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Mining and quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, steam, water and waste management</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>Financial and insurance activities</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -94,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -391,1812 +353,1853 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:77">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1946</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1947</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BR1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BS1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="BV1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BW1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BX1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="BY1" s="1" t="n">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Mining and quarrying</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>957.692491990189</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>977.237236724682</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>2431.36624497101</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>3048.98017858102</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>4006.67267057121</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>5163.72155885324</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>6516.2178944802</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>6914.93068706386</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>6316.86149818836</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>6754.66378024102</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>8052.4348306114</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>9186.030025212031</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>9107.851046274051</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>10104.6330277332</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>9526.10858359222</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>9506.56383885773</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>9545.653328326711</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>10042.0898445828</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>10163.2672619367</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>10659.7037781929</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>11977.0195732977</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>13231.7921852522</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>15190.1756076485</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>17054.7442553192</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>19368.8420318831</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>21088.7795685187</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>21139.5959048284</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>22155.9226310221</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>21671.2129616067</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>22421.7311594112</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>23008.0735014459</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>27612.8153608927</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>28605.6883934049</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>32241.0109140207</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>35680.8859872917</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>36548.6726535032</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>35825.5170983269</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>36134.3240651319</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>35020.2736152658</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>46489.1298254666</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>48130.8883831641</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>43905.3145715666</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>45750.3384745029</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>44519.0195562296</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>43354.1527700539</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>42099.3801580993</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>44933.3681446008</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>45230.4482645653</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>42072.017515471</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>39226.3026821288</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>39738.3749941725</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>40410.7142130392</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>41528.6736118522</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>41722.1168806183</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>56451.853377</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>54420.802195</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>81125.018138</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>91679.01016400001</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>86932.72563</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>99343.29672300001</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>95543.001261</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>109046.021426</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>107284.083082</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>122121.038635</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>133399.111183</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>133388.051836</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>128010.571564</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>130910.481915</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>149510.569676</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>148588.707145</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>156806.535862</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>160065.486217</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>163322.488586</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>168857.015598</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>137493.025133</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>144431.036201</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>26164.214381202</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>52832.7412929273</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>83547.7758900428</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>103576.187816543</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>123598.596022443</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>144893.792995853</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>153443.091132345</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>172468.881718401</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>193908.167986246</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>218943.682894372</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>249112.378916754</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>263857.516713961</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>283333.586345127</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>308495.179385885</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>316546.168712454</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>329778.368918092</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>347483.340971823</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>373545.4921028</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>386207.338851299</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>402315.32122504</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>431199.221038708</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>468758.497121498</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>498260.780157117</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>516289.953123328</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>557763.655038276</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>595617.113430538</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>629946.387829738</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>722775.915769652</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>751497.71512708</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>772306.610731771</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>817052.340374521</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>869014.542180234</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>926506.170659902</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>969877.048284915</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>1010378.14746242</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>1030052.33987344</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>1046538.55664507</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>1043182.47682885</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>937751.1393464539</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>863641.212241919</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>879262.893246942</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>928199.219869516</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>1016525.95735833</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>1075578.55319438</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>1104234.31162519</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>1099347.28305559</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>1080351.51107255</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>1088408.50411972</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>1142952.30578406</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>1220382.29038121</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>1288476.48944307</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>1342864.19437178</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>1327728.81473547</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>1350270.9322274</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>1572788.923968</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>1615140.919635</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>1675907.434909</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>1744160.752699</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>1816029.50843</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>1933017.106558</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>1987874.270046</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>2045234.773836</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>2151220.257407</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>2058618.808786</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>2214485.801508</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>2297191.779168</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>2427619.431025</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>2538760.398175</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>2732859.621118</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>2874284.387831</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>3070939.377446</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>3317641.432608</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>3488331.181025</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>3620455.937586</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>3266301.602731</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>3554736.921931</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Electricity, steam, water and waste management</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>9432.011795287921</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>9944.293586086311</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>10305.904261944</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>10750.3840510191</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>11044.1927251534</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>11481.1389584815</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>11918.0851918095</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>12211.8938659439</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>12648.8400992719</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>13085.7863325999</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>14622.6317049951</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>15353.3866124575</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>16159.4770773903</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>16453.2857515246</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>16965.567542323</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>16965.567542323</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>17033.3695440463</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>17108.7051015167</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>17327.1782181807</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>19157.8322647102</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>19594.7784980382</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>20333.0669612477</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>23482.0932635084</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>25990.767327271</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>29117.1929622907</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>32522.3601599505</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>34624.2222133732</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>37125.3627213888</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>60200.6439745574</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>62053.8986883281</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>69512.1188778927</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>72615.9438456713</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>76119.0472680425</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>85837.3341817177</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>93333.2221500177</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>107014.159386633</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>130835.262658758</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>118902.110355455</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>126993.149227771</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>118781.573463502</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>134481.503640323</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>119113.049916372</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>134074.691629983</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>141299.37159139</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>140681.620020133</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>147296.08196603</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>148267.910657397</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>152592.171656196</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>173731.329082376</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>196324.462767735</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>210999.829362959</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>221162.596065708</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>228379.742471369</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>231648.415654091</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>227751.85595</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>236233.398069</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>240080.703711</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>260147.633819</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>280209.77736</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>284094.657353</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>293444.126259</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>310704.894215</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>331050.232317</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>327945.492261</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>360981.600827</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>365609.843692</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>387840.160893</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>409649.528624</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>428436.570842</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>458765.980367</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>500471.779842</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>523160.631105</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>557030.201917</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>591311.995951</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>589213.035861</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>615505.4213019999</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>64198.5920388097</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>110797.193530267</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>139052.011952562</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>102885.100579503</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>89980.30032608259</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>101834.493642445</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>90138.35623696751</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>99975.01233791759</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>80524.8378925607</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>78730.4384336917</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>93792.237000364</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>106538.981342899</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>91700.32053277059</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>98041.1517812091</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>85136.35152778871</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>97139.30334851331</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>95577.3390527102</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>119062.587928892</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>133445.675819411</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>145894.903153223</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>138959.037887335</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>147466.164855548</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>133975.627991202</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>144788.511777029</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>129587.252112517</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>140846.411411431</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>167009.313366132</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>181401.698663174</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>204663.809782812</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>295108.980435027</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>393298.890720597</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>431102.145641641</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>443179.476714547</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>503947.325746503</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>532276.52342098</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>589650.819072172</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>596056.73216627</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>652715.12751522</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>520905.795243794</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>269968.793197817</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>265413.064001724</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>295118.27784155</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>308999.305779847</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>370761.977309725</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>389170.842224547</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>328058.989151253</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>337133.257917348</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>356499.755704</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>388389.860076645</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>413660.211005173</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>458724.740420396</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>532945.936690609</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>481521.981213902</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>407973.658639319</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>376339.275264</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>357417.658473</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>349269.639616</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>366883.203818</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>388234.323164</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>384829.689002</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>425237.235382</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>475688.990369</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>512019.079662</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>548966.951853</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>649156.774066</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>615619.526011</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>730639.597316</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>845198.337914</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>908065.069533</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>1011750.883648</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>1133124.059135</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>1201714.033207</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>1373841.417788</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>1507243.747752</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>1122308.049266</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>1234810.889054</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>213482.867237221</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>274926.408374352</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>306621.827503095</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>344615.562064938</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>372062.466071143</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>405706.813676541</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>451478.778032084</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>482742.593190559</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>522694.065594189</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>567362.516014381</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>597374.596008984</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>630817.745141321</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>652139.889024592</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>691041.745869412</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>718007.5750945</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>755835.625839103</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>797830.735263151</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>839020.542503981</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>877334.106155067</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>912577.368698356</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>952166.519322151</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>998813.995654445</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>1043332.60634036</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>1096801.82401181</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>1143559.53772777</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>1198182.55089265</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>1247406.38493479</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>1322946.46082604</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>1385726.81181886</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>1455780.13338318</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>1543550.29914598</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>1613004.42745808</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>1703682.47990263</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>1794625.9748335</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>1902562.30185021</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>1941549.96397406</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>2067208.74923609</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>2170523.96948946</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>2038610.02371446</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>1999830.09970121</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>2084687.44189373</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>2191696.63577004</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>2342877.75362143</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>2501724.88930174</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>2616762.94878578</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>2624349.97718467</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>2651295.21062253</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>2717758.1696512</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>2830637.07567294</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>2965482.27905292</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>3150666.69332245</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>3317791.981217</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>3412728.03937759</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>3568568.59657837</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>3688046.244643</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>3830053.470401</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>3974520.6392</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>4185435.787886</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>4532562.356355</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>4771970.633589</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>5078027.475269</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>5468817.760841</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>5686952.129157</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>5881773.901588</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>6326036.939285</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>6652995.990549</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>7144044.921843</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>7684933.195282</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>8201168.559007</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>8809173.735735999</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>9529249.159802999</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>10230262.208914</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>10920048.472266</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>11711026.767278</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>10642137.00229</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>11213211.486369</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
         <v>283648.402839106</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>291849.246163041</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>309382.83905776</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>328260.114206802</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>344245.551460672</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>356740.335901682</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>379962.67051443</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>401958.164808014</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>415227.02706945</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>441341.199577369</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>471763.91844426</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>506984.459273593</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>546221.441624</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>579353.432862377</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>580638.694149122</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>630493.687357056</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>655329.901199179</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>610769.308178113</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>604912.6061782941</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>634721.904885601</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>657513.384862453</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>695063.46177401</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>750190.94730597</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>784505.963137826</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>788697.667561637</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>801681.727606124</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>821391.501543169</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>853844.349033438</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>901362.503538202</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>951144.470536662</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>988234.482328533</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>1012442.67076918</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>1101079.42180755</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>1260149.625534</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>1318538.621664</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>1361602.148853</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>1425297.745875</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>1525888.24471</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>1603593.75607</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>1697235.157787</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>1837413.908058</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>1861552.755658</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>1877191.394168</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>2030313.758574</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>2093913.327682</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>2245452.864049</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>2381082.16762</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>2506535.193324</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>2670293.978079</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>2861060.496261</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>3057552.347338</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>3237304.499115</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>3489299.398624</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>3275536.813015</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>3414326.328215</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Financial and insurance activities</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>143999.06295321</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>181875.512504101</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>198842.790809704</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>220454.647318155</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>236967.751002446</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>260644.816637993</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>283165.022389066</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>298624.098178616</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>324066.446304543</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>353947.708653855</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>372174.678833661</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>396400.181747772</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>407300.37265925</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>433651.070027801</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>448793.080515679</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>471141.899617201</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>498846.551517209</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>521589.559912699</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>541830.323224737</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>560571.453353198</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>585516.780195427</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>66866.5013225359</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>73156.39136107751</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>82582.6570864127</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>85839.0034278922</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>90295.0563162324</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>97947.470218709</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>107905.034557654</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>112361.087445994</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>130348.116316429</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>146449.892041797</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>157744.272247244</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>166116.510077836</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>184651.976226836</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>205689.687459289</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>177985.035559281</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>187788.35191363</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>213864.830642897</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>172329.27612408</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>146732.680013557</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>158678.329487299</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>183940.721631197</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>204335.732927831</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>233608.572671235</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>256805.755688037</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>249487.545752187</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>250370.186997376</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>256300.165071861</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>270328.162337655</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>290089.043030949</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>330030.701708936</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>372843.086766911</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>389433.314443502</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>404113.279442702</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>341019.568119</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>357883.579068</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>379993.595611</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>407907.103621</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>444300.139126</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>489868.289405</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>555549.363764</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>618666.652598</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>637228.441953</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>680187.415916</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>757900.749597</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>806878.3604</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>883974.155032</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>1006838.764597</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>1092038.20034</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>1171993.684796</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>1275687.044813</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>1382520.584516</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>1498146.707611</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>1676448.101505</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>1769952.497323</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>1853154.422339</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>